--- a/supplement/PTPs_Will_2020.xlsx
+++ b/supplement/PTPs_Will_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD30A1-A1C3-B440-8208-36DFFD975BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D2DC6-6AA9-1048-A828-A29EB5E4D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13940" xr2:uid="{B70343C2-7F49-1F49-8AF0-370A15536266}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EAA91D-F959-794F-B14F-AD7E61AF0EAE}">
   <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
